--- a/Benchmark/Datas/enums.xlsx
+++ b/Benchmark/Datas/enums.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\Benchmark\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C15579-E2E5-46BD-B658-846983DCF20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31228ED6-24AB-42D5-B03C-0F7D301BABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="26100" windowHeight="14850" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="2700" yWindow="1350" windowWidth="26100" windowHeight="14850" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,10 @@
   </si>
   <si>
     <t>全名(包含模块和名字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,7 +532,7 @@
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -536,7 +540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>28</v>
       </c>
@@ -552,8 +556,11 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -570,7 +577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>29</v>
       </c>
@@ -587,7 +594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>29</v>
       </c>
@@ -604,7 +611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -621,7 +628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -638,7 +645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -655,7 +662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>30</v>
       </c>

--- a/Benchmark/Datas/enums.xlsx
+++ b/Benchmark/Datas/enums.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\Benchmark\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31228ED6-24AB-42D5-B03C-0F7D301BABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58057F0-C910-466F-BB2E-2A931D20F278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1350" windowWidth="26100" windowHeight="14850" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="30210" yWindow="2355" windowWidth="25335" windowHeight="12915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,91 +71,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最差品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.ETestQuality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.ETestCurrency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全名(包含模块和名字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_rows=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最差品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>full_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.ETestQuality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.ETestCurrency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全名(包含模块和名字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,149 +530,147 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
